--- a/2021项目对接/04-01 超e保2021慢病版/超e保产品页面关系.xlsx
+++ b/2021项目对接/04-01 超e保2021慢病版/超e保产品页面关系.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>太平人寿线上医生超e保2021慢病版增值服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I21AM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I21AE4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,11 +124,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太平人寿线上医生超e保2021慢病版增值服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I21AM4</t>
+    <t>http://wpttest.healthlink.cn/WAD1/auth/spe-members/tprsyszz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,10 +608,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
@@ -615,12 +619,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -631,8 +637,9 @@
     <hyperlink ref="C2" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>